--- a/datasets/xlsx/teams_id(tratado).xlsx
+++ b/datasets/xlsx/teams_id(tratado).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tottenham</t>
+          <t>botafogo_rj</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,11 +475,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>manchester_city</t>
+          <t>palmeiras</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -491,11 +491,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>arsenal</t>
+          <t>bragantino</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -507,11 +507,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>liverpool</t>
+          <t>gremio</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -523,11 +523,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>aston_villa</t>
+          <t>flamengo</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -539,11 +539,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>newcastle_utd</t>
+          <t>atl_mineiro</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -555,11 +555,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brighton</t>
+          <t>ath_paranaense</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -571,11 +571,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>manchester_utd</t>
+          <t>fluminense</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -587,11 +587,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>west_ham</t>
+          <t>sao_paulo</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -603,11 +603,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chelsea</t>
+          <t>fortaleza</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -619,11 +619,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>crystal_palace</t>
+          <t>internacional</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -635,11 +635,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>wolves</t>
+          <t>cuiaba</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -651,11 +651,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fulham</t>
+          <t>corinthians</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -667,11 +667,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brentford</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nottingham_forest</t>
+          <t>bahia</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -699,11 +699,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>everton</t>
+          <t>vasco_da_gama</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -715,11 +715,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>luton_town</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -731,11 +731,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>burnley</t>
+          <t>goias</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -747,11 +747,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bournemouth</t>
+          <t>coritiba</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -763,11 +763,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sheffield_utd</t>
+          <t>america_mg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -779,11 +779,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>leicester_city</t>
+          <t>manchester_city</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -795,11 +795,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>leeds_utd</t>
+          <t>tottenham</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -811,11 +811,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>southampton</t>
+          <t>liverpool</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -827,11 +827,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>watford</t>
+          <t>arsenal</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -843,11 +843,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>norwich_city</t>
+          <t>aston_villa</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -859,11 +859,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>west_brom</t>
+          <t>newcastle_utd</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -875,11 +875,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cardiff_city</t>
+          <t>brighton</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -891,11 +891,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>huddersfield</t>
+          <t>manchester_utd</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -907,11 +907,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>swansea_city</t>
+          <t>brentford</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -923,11 +923,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>stoke_city</t>
+          <t>chelsea</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -939,11 +939,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>hull_city</t>
+          <t>crystal_palace</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -955,11 +955,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>middlesbrough</t>
+          <t>west_ham</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -971,11 +971,1051 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sunderland</t>
+          <t>nottingham_forest</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>wolves</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fulham</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>everton</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>luton_town</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>bournemouth</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>burnley</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>sheffield_utd</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>inter</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>juventus</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>milan</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>napoli</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>atalanta</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>bologna</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>roma</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>fiorentina</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>monza</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>lazio</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>frosinone</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>torino</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>lecce</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>genoa</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>sassuolo</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>udinese</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cagliari</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>hellas_verona</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>empoli</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>salernitana</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>leverkusen</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>bayern_munich</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>stuttgart</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>dortmund</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>rb_leipzig</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>hoffenheim</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>eint_frankfurt</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>freiburg</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>wolfsburg</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>augsburg</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>monchengladbach</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>werder_bremen</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>heidenheim</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>bochum</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>darmstadt_98</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>union_berlin</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>mainz_05</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>koln</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>girona</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>real_madrid</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>barcelona</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>atl_madrid</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>athletic_club</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>betis</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>real_sociedad</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>valencia</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>rayo_vallecano</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>las_palmas</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>getafe</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>osasuna</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>villarreal</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>alaves</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sevilla</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>cadiz</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>mallorca</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>celta_vigo</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>granada</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>almeria</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/xlsx/teams_id(tratado).xlsx
+++ b/datasets/xlsx/teams_id(tratado).xlsx
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
